--- a/Arquivos/Tabela.xlsx
+++ b/Arquivos/Tabela.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,98 +21,80 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
-    <t xml:space="preserve">[0-9]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q15</t>
+    <t>[0-9]</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>q0</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q12</t>
+  </si>
+  <si>
+    <t>q13</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>q15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,108 +106,366 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="G1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G6:J22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
         <v>0</v>
@@ -235,7 +474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
@@ -249,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
@@ -257,10 +496,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
@@ -268,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
@@ -282,7 +521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
@@ -293,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
@@ -301,10 +540,10 @@
         <v>10</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
@@ -312,10 +551,10 @@
         <v>11</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
@@ -326,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
@@ -337,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
@@ -345,10 +584,10 @@
         <v>14</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
@@ -356,10 +595,10 @@
         <v>15</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
@@ -370,7 +609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
@@ -381,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
@@ -395,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
@@ -409,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22" s="3" t="s">
         <v>18</v>
       </c>
@@ -424,12 +663,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>